--- a/manual-data/ren_ll/generators.xlsx
+++ b/manual-data/ren_ll/generators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nordics-2045\manual-data\ll_hw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nordics-2045\manual-data\ren_ll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FE49CE-CCE9-42EE-9D31-04DBDE808433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4916281-B6EF-40C8-B055-DD685E9AE6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="885" windowWidth="22875" windowHeight="14220" xr2:uid="{1321F329-8371-42A5-B93D-0FEC63877E3D}"/>
+    <workbookView xWindow="3465" yWindow="915" windowWidth="32745" windowHeight="15435" xr2:uid="{1321F329-8371-42A5-B93D-0FEC63877E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
